--- a/python/python_100_days/example.xlsx
+++ b/python/python_100_days/example.xlsx
@@ -34,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +42,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="00FF0000"/>
+      </left>
+      <right style="thin">
+        <color rgb="00FF0000"/>
+      </right>
+      <top style="double">
+        <color rgb="00FF0000"/>
+      </top>
+      <bottom style="double">
+        <color rgb="00FF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -342,18 +358,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <tabColor rgb="001072BA"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="B2:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2">
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/python/python_100_days/example.xlsx
+++ b/python/python_100_days/example.xlsx
@@ -7,7 +7,8 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="WorkSheetTitle" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="WorkSheelTitle" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Example" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -34,7 +35,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -42,28 +43,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="00FF0000"/>
-      </left>
-      <right style="thin">
-        <color rgb="00FF0000"/>
-      </right>
-      <top style="double">
-        <color rgb="00FF0000"/>
-      </top>
-      <bottom style="double">
-        <color rgb="00FF0000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -356,12 +341,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:B2"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -369,14 +354,35 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="2">
-      <c r="B2" s="1" t="inlineStr">
+    <row r="1">
+      <c r="A1" t="inlineStr">
         <is>
-          <t>TEST</t>
+          <t>Link</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>